--- a/data/pca/factorExposure/factorExposure_2013-05-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-14.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001461158106209132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001991521014518383</v>
+      </c>
+      <c r="C2">
+        <v>-0.03234562831139941</v>
+      </c>
+      <c r="D2">
+        <v>0.006931625797101979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.002263521391437652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.00601664988666199</v>
+      </c>
+      <c r="C4">
+        <v>-0.08446384433068332</v>
+      </c>
+      <c r="D4">
+        <v>0.07856137941051983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0008437585793679396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.0133942591688962</v>
+      </c>
+      <c r="C6">
+        <v>-0.1077802747991482</v>
+      </c>
+      <c r="D6">
+        <v>0.03418011215530103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002655725258518319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004798268960682294</v>
+      </c>
+      <c r="C7">
+        <v>-0.0526538322287048</v>
+      </c>
+      <c r="D7">
+        <v>0.04065904896009765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001089460282000063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.00564392153480341</v>
+      </c>
+      <c r="C8">
+        <v>-0.0366300549262426</v>
+      </c>
+      <c r="D8">
+        <v>0.03975848186976691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005856389112266176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003968489387519478</v>
+      </c>
+      <c r="C9">
+        <v>-0.06921161135907238</v>
+      </c>
+      <c r="D9">
+        <v>0.07104281070346369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002943781148688351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005718391703859856</v>
+      </c>
+      <c r="C10">
+        <v>-0.07439575649019287</v>
+      </c>
+      <c r="D10">
+        <v>-0.2105252592304264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.004201492174468683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005194560290209799</v>
+      </c>
+      <c r="C11">
+        <v>-0.07775922884264845</v>
+      </c>
+      <c r="D11">
+        <v>0.06560601109758991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0005282907109347864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003981501808470157</v>
+      </c>
+      <c r="C12">
+        <v>-0.06350154354335912</v>
+      </c>
+      <c r="D12">
+        <v>0.04770183086347134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003224511671040734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008557713102100574</v>
+      </c>
+      <c r="C13">
+        <v>-0.06883063608690995</v>
+      </c>
+      <c r="D13">
+        <v>0.06639961628278065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002433974869344857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001527121171147517</v>
+      </c>
+      <c r="C14">
+        <v>-0.04650945453454602</v>
+      </c>
+      <c r="D14">
+        <v>0.01417656785613374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002886871435610925</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.00587957772635751</v>
+      </c>
+      <c r="C15">
+        <v>-0.03913568660835093</v>
+      </c>
+      <c r="D15">
+        <v>0.03642572935362965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002216376808528101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.00485693758720984</v>
+      </c>
+      <c r="C16">
+        <v>-0.06418941613762331</v>
+      </c>
+      <c r="D16">
+        <v>0.0495701007229855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0001430726758425532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008918371832608523</v>
+      </c>
+      <c r="C20">
+        <v>-0.06463891964407374</v>
+      </c>
+      <c r="D20">
+        <v>0.05689148878897649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005734478521279783</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009891543433454823</v>
+      </c>
+      <c r="C21">
+        <v>-0.02316331538512949</v>
+      </c>
+      <c r="D21">
+        <v>0.03497498614034564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01704192396029876</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007011662974899511</v>
+      </c>
+      <c r="C22">
+        <v>-0.09261348206334777</v>
+      </c>
+      <c r="D22">
+        <v>0.0997699338211461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01738331223548009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006804454514362709</v>
+      </c>
+      <c r="C23">
+        <v>-0.09365447072689012</v>
+      </c>
+      <c r="D23">
+        <v>0.1003206531490215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.00317323041425383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004817807129943827</v>
+      </c>
+      <c r="C24">
+        <v>-0.07265140002773757</v>
+      </c>
+      <c r="D24">
+        <v>0.06253727467788217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004882041887533575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002684144868605394</v>
+      </c>
+      <c r="C25">
+        <v>-0.07689022711427759</v>
+      </c>
+      <c r="D25">
+        <v>0.06728046957530918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006481961774866533</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003551652827933096</v>
+      </c>
+      <c r="C26">
+        <v>-0.04009494469630683</v>
+      </c>
+      <c r="D26">
+        <v>0.02832499061366843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007030945853106992</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0003122664759575338</v>
+      </c>
+      <c r="C28">
+        <v>-0.1252765878818385</v>
+      </c>
+      <c r="D28">
+        <v>-0.3082080407423876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002227425171043369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.00322426846528608</v>
+      </c>
+      <c r="C29">
+        <v>-0.04815665718949397</v>
+      </c>
+      <c r="D29">
+        <v>0.01412374233541683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004598112149307792</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008699003393929965</v>
+      </c>
+      <c r="C30">
+        <v>-0.1368924497051138</v>
+      </c>
+      <c r="D30">
+        <v>0.1101356631580443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0007402437213151077</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006068372875120338</v>
+      </c>
+      <c r="C31">
+        <v>-0.04520099767227887</v>
+      </c>
+      <c r="D31">
+        <v>0.03195091621977363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.002067902066248573</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004031658850074001</v>
+      </c>
+      <c r="C32">
+        <v>-0.04077567120654674</v>
+      </c>
+      <c r="D32">
+        <v>0.01641414981760312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.004219813334208546</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007711176306316514</v>
+      </c>
+      <c r="C33">
+        <v>-0.08215992281276756</v>
+      </c>
+      <c r="D33">
+        <v>0.07445115320557129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005231965340188968</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00370775129069046</v>
+      </c>
+      <c r="C34">
+        <v>-0.05724586972410078</v>
+      </c>
+      <c r="D34">
+        <v>0.04772408227725546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003250805676169009</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004842042566629735</v>
+      </c>
+      <c r="C35">
+        <v>-0.03849713323268707</v>
+      </c>
+      <c r="D35">
+        <v>0.012948199753357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004879816790746104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001353168996274992</v>
+      </c>
+      <c r="C36">
+        <v>-0.02339218835400194</v>
+      </c>
+      <c r="D36">
+        <v>0.02275552186269863</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001675275951813713</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00923870003278374</v>
+      </c>
+      <c r="C38">
+        <v>-0.03224479260783211</v>
+      </c>
+      <c r="D38">
+        <v>0.02177244889679655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01363435008432217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001019543819101209</v>
+      </c>
+      <c r="C39">
+        <v>-0.114898307562836</v>
+      </c>
+      <c r="D39">
+        <v>0.085352607337197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008272347709559768</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002208792103205735</v>
+      </c>
+      <c r="C40">
+        <v>-0.08677375139447804</v>
+      </c>
+      <c r="D40">
+        <v>0.02255857156935067</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0005420503127071944</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007345563640788721</v>
+      </c>
+      <c r="C41">
+        <v>-0.03859581263508169</v>
+      </c>
+      <c r="D41">
+        <v>0.03559438101000691</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003672653967855768</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003451079040505707</v>
+      </c>
+      <c r="C43">
+        <v>-0.04987340920093104</v>
+      </c>
+      <c r="D43">
+        <v>0.0278404100333855</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004495414126744484</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003531949212985475</v>
+      </c>
+      <c r="C44">
+        <v>-0.1080801308913406</v>
+      </c>
+      <c r="D44">
+        <v>0.08535414474883088</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002766418994585651</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002305573101265238</v>
+      </c>
+      <c r="C46">
+        <v>-0.03451376862605096</v>
+      </c>
+      <c r="D46">
+        <v>0.03268338066820479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.000757524822236584</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002769732511684441</v>
+      </c>
+      <c r="C47">
+        <v>-0.03911872419281008</v>
+      </c>
+      <c r="D47">
+        <v>0.02287605571037412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003925827002813733</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006367178210651544</v>
+      </c>
+      <c r="C48">
+        <v>-0.02840982046272298</v>
+      </c>
+      <c r="D48">
+        <v>0.03206551834333329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01348964915660769</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01420824232328983</v>
+      </c>
+      <c r="C49">
+        <v>-0.1712874509612408</v>
+      </c>
+      <c r="D49">
+        <v>0.03358966575461968</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0009187104790722211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003605108326127527</v>
+      </c>
+      <c r="C50">
+        <v>-0.04228226463332072</v>
+      </c>
+      <c r="D50">
+        <v>0.03596331046665056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001883098109641431</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004288882267591131</v>
+      </c>
+      <c r="C51">
+        <v>-0.01993399257573861</v>
+      </c>
+      <c r="D51">
+        <v>0.0327346196977821</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0001952265089845831</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02023853562316085</v>
+      </c>
+      <c r="C53">
+        <v>-0.1653327976163572</v>
+      </c>
+      <c r="D53">
+        <v>0.04989696208454181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0002031201742392086</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008579652204520271</v>
+      </c>
+      <c r="C54">
+        <v>-0.05501533453154385</v>
+      </c>
+      <c r="D54">
+        <v>0.04252110842859819</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.00473547529048334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009246991890473882</v>
+      </c>
+      <c r="C55">
+        <v>-0.1052902850406744</v>
+      </c>
+      <c r="D55">
+        <v>0.05281877102398129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002504805293321747</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01948407137474415</v>
+      </c>
+      <c r="C56">
+        <v>-0.1713050776645497</v>
+      </c>
+      <c r="D56">
+        <v>0.04969920090424482</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008844296352025134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01934497556559442</v>
+      </c>
+      <c r="C58">
+        <v>-0.1027395000160316</v>
+      </c>
+      <c r="D58">
+        <v>0.07352146599353612</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.009202169816087078</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009663109145470816</v>
+      </c>
+      <c r="C59">
+        <v>-0.1693444880170519</v>
+      </c>
+      <c r="D59">
+        <v>-0.2809086512102068</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006358723210825818</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.0232723167212056</v>
+      </c>
+      <c r="C60">
+        <v>-0.2214725851930989</v>
+      </c>
+      <c r="D60">
+        <v>0.02798669834616639</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.0147852891051014</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002029273421792841</v>
+      </c>
+      <c r="C61">
+        <v>-0.09438510410033728</v>
+      </c>
+      <c r="D61">
+        <v>0.06383777101993786</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1786153959886981</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.143721387254042</v>
+      </c>
+      <c r="C62">
+        <v>-0.07796106331868372</v>
+      </c>
+      <c r="D62">
+        <v>0.05531177762117065</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001979691910729631</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006359059524719896</v>
+      </c>
+      <c r="C63">
+        <v>-0.05893175764715285</v>
+      </c>
+      <c r="D63">
+        <v>0.02635211056085495</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.006152963633023068</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.014678402504717</v>
+      </c>
+      <c r="C64">
+        <v>-0.1024991595936422</v>
+      </c>
+      <c r="D64">
+        <v>0.06594962172627221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0004584175637985016</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01708115354868301</v>
+      </c>
+      <c r="C65">
+        <v>-0.1148874908052281</v>
+      </c>
+      <c r="D65">
+        <v>0.02743702603481937</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008988365942047912</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01216637390480888</v>
+      </c>
+      <c r="C66">
+        <v>-0.1533659009155184</v>
+      </c>
+      <c r="D66">
+        <v>0.1245449036756726</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002469593006674815</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01538975171843598</v>
+      </c>
+      <c r="C67">
+        <v>-0.062259772197377</v>
+      </c>
+      <c r="D67">
+        <v>0.03328878122180693</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.008798314655835481</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001360876357414658</v>
+      </c>
+      <c r="C68">
+        <v>-0.1079469468838176</v>
+      </c>
+      <c r="D68">
+        <v>-0.2610485832381219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003024347078749977</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005892446941359718</v>
+      </c>
+      <c r="C69">
+        <v>-0.04760487390989586</v>
+      </c>
+      <c r="D69">
+        <v>0.04254327037117728</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001741692345558562</v>
+      </c>
+      <c r="C70">
+        <v>-0.002115180953164467</v>
+      </c>
+      <c r="D70">
+        <v>0.002038252275965065</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.004696338706245688</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006235301973716387</v>
+      </c>
+      <c r="C71">
+        <v>-0.1109854862247666</v>
+      </c>
+      <c r="D71">
+        <v>-0.2838626915939303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008674038885930315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01557108994592316</v>
+      </c>
+      <c r="C72">
+        <v>-0.148685017966584</v>
+      </c>
+      <c r="D72">
+        <v>0.02402069606526601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01296125659988716</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02922562185908092</v>
+      </c>
+      <c r="C73">
+        <v>-0.282097546943674</v>
+      </c>
+      <c r="D73">
+        <v>0.04847405181116732</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004871989535198208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001343692664696449</v>
+      </c>
+      <c r="C74">
+        <v>-0.1045949716694107</v>
+      </c>
+      <c r="D74">
+        <v>0.04537139188585117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006893646212940935</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01059122386644584</v>
+      </c>
+      <c r="C75">
+        <v>-0.1306451083699886</v>
+      </c>
+      <c r="D75">
+        <v>0.03557263028355329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01155358986862365</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02120929428966753</v>
+      </c>
+      <c r="C76">
+        <v>-0.1462367380553432</v>
+      </c>
+      <c r="D76">
+        <v>0.07343615701293228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001586571645393429</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02423655001801956</v>
+      </c>
+      <c r="C77">
+        <v>-0.1335333678136672</v>
+      </c>
+      <c r="D77">
+        <v>0.06716064293018106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0007401857464441879</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01415872475966143</v>
+      </c>
+      <c r="C78">
+        <v>-0.09184302860991669</v>
+      </c>
+      <c r="D78">
+        <v>0.06758045056481128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02613917621815765</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03677843654816931</v>
+      </c>
+      <c r="C79">
+        <v>-0.1558283973746219</v>
+      </c>
+      <c r="D79">
+        <v>0.03518750002164356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005136187172680174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01046787675281677</v>
+      </c>
+      <c r="C80">
+        <v>-0.0410380116089075</v>
+      </c>
+      <c r="D80">
+        <v>0.03406432534865429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.002092092088932044</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01441785516909407</v>
+      </c>
+      <c r="C81">
+        <v>-0.1212901371635557</v>
+      </c>
+      <c r="D81">
+        <v>0.05691473970498553</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00544781096813161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01947187068878597</v>
+      </c>
+      <c r="C82">
+        <v>-0.1416695833623872</v>
+      </c>
+      <c r="D82">
+        <v>0.04717514837020695</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.007108763139210004</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009796418975482491</v>
+      </c>
+      <c r="C83">
+        <v>-0.05501980180644783</v>
+      </c>
+      <c r="D83">
+        <v>0.0397884634802153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01326612552241337</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01168136476953689</v>
+      </c>
+      <c r="C84">
+        <v>-0.03182818191378473</v>
+      </c>
+      <c r="D84">
+        <v>-0.0009042755932487857</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01392494052438599</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02789649761107472</v>
+      </c>
+      <c r="C85">
+        <v>-0.128017479922044</v>
+      </c>
+      <c r="D85">
+        <v>0.05171986047062028</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003116402911014508</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.00555153743415245</v>
+      </c>
+      <c r="C86">
+        <v>-0.05003319690282125</v>
+      </c>
+      <c r="D86">
+        <v>0.02183670925837018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.008198413213114366</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01003437464275911</v>
+      </c>
+      <c r="C87">
+        <v>-0.1284277085313716</v>
+      </c>
+      <c r="D87">
+        <v>0.07913086750300476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01521166858165182</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002852967955185587</v>
+      </c>
+      <c r="C88">
+        <v>-0.06873530068138717</v>
+      </c>
+      <c r="D88">
+        <v>0.01689606206416479</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01742543254655582</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0008597829570490376</v>
+      </c>
+      <c r="C89">
+        <v>-0.1621132670768459</v>
+      </c>
+      <c r="D89">
+        <v>-0.3432107556287856</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.005809012532953125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007556340357558547</v>
+      </c>
+      <c r="C90">
+        <v>-0.1409022859286609</v>
+      </c>
+      <c r="D90">
+        <v>-0.3190405970179886</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001549740473997246</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01012711992267116</v>
+      </c>
+      <c r="C91">
+        <v>-0.1047157965421174</v>
+      </c>
+      <c r="D91">
+        <v>0.02026721588085091</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01451795089050086</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006983802521657464</v>
+      </c>
+      <c r="C92">
+        <v>-0.1510818840651998</v>
+      </c>
+      <c r="D92">
+        <v>-0.3275501014073936</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003536490847350934</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005518088108568435</v>
+      </c>
+      <c r="C93">
+        <v>-0.1249005555546338</v>
+      </c>
+      <c r="D93">
+        <v>-0.3125411076385169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003619306259292743</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.022188131776172</v>
+      </c>
+      <c r="C94">
+        <v>-0.1555748339785915</v>
+      </c>
+      <c r="D94">
+        <v>0.03561331432586611</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004645231851249163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.0160031738080805</v>
+      </c>
+      <c r="C95">
+        <v>-0.1238357191665938</v>
+      </c>
+      <c r="D95">
+        <v>0.06935120853107586</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.004353088404920062</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03462261203753651</v>
+      </c>
+      <c r="C97">
+        <v>-0.1788929779211596</v>
+      </c>
+      <c r="D97">
+        <v>0.0413126836282814</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.008684369294927809</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03628008237449745</v>
+      </c>
+      <c r="C98">
+        <v>-0.2543888388031096</v>
+      </c>
+      <c r="D98">
+        <v>0.04359123268020818</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.981488056518385</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827251849762288</v>
+      </c>
+      <c r="C99">
+        <v>0.1097626626466474</v>
+      </c>
+      <c r="D99">
+        <v>-0.03196798100177421</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.002185474182154738</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003266892547717331</v>
+      </c>
+      <c r="C101">
+        <v>-0.04818121611840635</v>
+      </c>
+      <c r="D101">
+        <v>0.0145081972126367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
